--- a/处理excel/工作簿3.xlsx
+++ b/处理excel/工作簿3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\001 python\003 project\demo001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\002 工作站\06 excel_tool\处理excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01329699-D407-4C02-871F-7FABF6FBB2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E3F1C8C-7734-483D-B60D-7640F7F7226F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10590" yWindow="2550" windowWidth="13005" windowHeight="11400" xr2:uid="{AF2196AE-983A-414D-A82E-687C200471F5}"/>
+    <workbookView xWindow="10245" yWindow="2205" windowWidth="13005" windowHeight="11400" xr2:uid="{8EC912B0-AD33-4D72-8229-6CDBE0971D3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>hahaha</t>
+    <t>hello office</t>
+  </si>
+  <si>
+    <t>hello office2</t>
   </si>
 </sst>
 </file>
@@ -398,16 +401,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C16002-06F7-4AC3-B955-451DDA08088F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58146975-3B23-479D-B58B-5A2E8785326B}">
+  <dimension ref="A3:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/处理excel/工作簿3.xlsx
+++ b/处理excel/工作簿3.xlsx
@@ -1,32 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\001 python\003 project\demo001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitPython\excel处理\处理excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01329699-D407-4C02-871F-7FABF6FBB2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10590" yWindow="2550" windowWidth="13005" windowHeight="11400" xr2:uid="{AF2196AE-983A-414D-A82E-687C200471F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -41,7 +32,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,7 +110,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -131,7 +122,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -178,23 +169,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -230,23 +204,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -398,7 +355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C16002-06F7-4AC3-B955-451DDA08088F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
